--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/02. Excel - Advanced Formulas and Functions/Material/Ex_Files_Excel_Advanced_Formulas_Functions/Exercise Files/Ch-8/8-Reference.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/02. Excel - Advanced Formulas and Functions/Material/Ex_Files_Excel_Advanced_Formulas_Functions/Exercise Files/Ch-8/8-Reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis Taylor\Pictures\Advanced Formulas and Functions\Exercise Files\Ch-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Descargas\1. GIT\OnlineCourses\17. LinkedIn Learning\01. Microsoft Excel\01. Master Microsoft Excel - Learning Path\02. Excel - Advanced Formulas and Functions\Material\Ex_Files_Excel_Advanced_Formulas_Functions\Exercise Files\Ch-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7F035-D9E7-4F4F-A1D2-A943524D3C91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B745A9-F98A-4733-BFE6-888EDDDE558B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OFFSET" sheetId="2" r:id="rId1"/>
@@ -24,16 +24,33 @@
     <sheet name="Sheet1" sheetId="10" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="Alabama">'INDIRECT and Pick List'!$F$2:$F$3</definedName>
+    <definedName name="Arizona">'INDIRECT and Pick List'!$G$2:$G$8</definedName>
+    <definedName name="California">'INDIRECT and Pick List'!$H$2:$H$24</definedName>
+    <definedName name="Colorado">'INDIRECT and Pick List'!$I$2:$I$4</definedName>
     <definedName name="ee" localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="ee" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
+    <definedName name="Florida">'INDIRECT and Pick List'!$J$2:$J$7</definedName>
     <definedName name="k" localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="k" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
+    <definedName name="Nevada">'INDIRECT and Pick List'!$K$2:$K$4</definedName>
+    <definedName name="NewJersey">'INDIRECT and Pick List'!$L$2:$L$3</definedName>
+    <definedName name="NewYork">'INDIRECT and Pick List'!$M$2:$M$5</definedName>
+    <definedName name="NorthCarolina">'INDIRECT and Pick List'!$N$2:$N$7</definedName>
+    <definedName name="Ohio">'INDIRECT and Pick List'!$O$2:$O$5</definedName>
+    <definedName name="Oklahoma">'INDIRECT and Pick List'!$P$2:$P$3</definedName>
+    <definedName name="Pennsylvania">'INDIRECT and Pick List'!$Q$2:$Q$3</definedName>
     <definedName name="q" localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="q" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="rr" localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="rr" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="rrr" localSheetId="0" hidden="1">{"AllDetail",#N/A,FALSE,"Research Budget";"1stQuarter",#N/A,FALSE,"Research Budget";"2nd Quarter",#N/A,FALSE,"Research Budget";"Summary",#N/A,FALSE,"Research Budget"}</definedName>
     <definedName name="rrr" hidden="1">{"AllDetail",#N/A,FALSE,"Research Budget";"1stQuarter",#N/A,FALSE,"Research Budget";"2nd Quarter",#N/A,FALSE,"Research Budget";"Summary",#N/A,FALSE,"Research Budget"}</definedName>
+    <definedName name="Tennessee">'INDIRECT and Pick List'!$R$2:$R$3</definedName>
+    <definedName name="Texas">'INDIRECT and Pick List'!$S$2:$S$14</definedName>
+    <definedName name="Virginia">'INDIRECT and Pick List'!$T$2:$T$5</definedName>
+    <definedName name="Washington">'INDIRECT and Pick List'!$U$2:$U$4</definedName>
+    <definedName name="Wisconsin">'INDIRECT and Pick List'!$V$2:$V$3</definedName>
     <definedName name="wrn.AllData." localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="wrn.AllData." hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="wrn.FirstHalf." localSheetId="0" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000"}</definedName>
@@ -60,8 +77,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="176">
   <si>
     <t>Reporting
 Date</t>
@@ -603,9 +642,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -781,13 +820,13 @@
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="40" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -799,12 +838,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="4" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -815,7 +854,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -830,7 +869,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,6 +914,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1171,24 +1211,24 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.3046875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="4.3828125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.4609375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="11.61328125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.15234375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.53515625" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="15"/>
+    <col min="1" max="1" width="10.88671875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1208,117 +1248,199 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>43500</v>
       </c>
       <c r="B2" s="17">
         <v>234.2</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="D2" s="16">
+        <f ca="1">OFFSET(A1,COUNTA(A:A)-1,0)</f>
+        <v>43510</v>
+      </c>
+      <c r="E2" s="39">
+        <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
+        <v>257.3</v>
+      </c>
+      <c r="F2" s="17">
+        <f ca="1">AVERAGE(OFFSET(B1,COUNTA(B:B)-3,0,3))</f>
+        <v>255.70000000000002</v>
+      </c>
+      <c r="G2" s="17">
+        <f ca="1">AVERAGE(OFFSET(B1,COUNTA(B:B)-5,0,5))</f>
+        <v>250.71999999999997</v>
+      </c>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>43501</v>
       </c>
       <c r="B3" s="17">
         <v>238</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F3" s="17">
+        <f t="shared" ref="F3:F10" ca="1" si="0">AVERAGE(OFFSET(B2,COUNTA(B:B)-3,0,3))</f>
+        <v>256.64999999999998</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:G10" ca="1" si="1">AVERAGE(OFFSET(B2,COUNTA(B:B)-5,0,5))</f>
+        <v>252.89999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>43502</v>
       </c>
       <c r="B4" s="17">
         <v>244.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F4" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>257.3</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>255.70000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>43503</v>
       </c>
       <c r="B5" s="17">
         <v>246.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F5" s="17" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>256.64999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>43504</v>
       </c>
       <c r="B6" s="17">
         <v>242</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F6" s="17" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>257.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>43507</v>
       </c>
       <c r="B7" s="17">
         <v>244.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F7" s="17" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="17" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>43508</v>
       </c>
       <c r="B8" s="17">
         <v>253.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F8" s="17" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="17" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>43509</v>
       </c>
       <c r="B9" s="17">
         <v>256</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F9" s="17" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="17" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>43510</v>
+      </c>
+      <c r="B10" s="17">
+        <v>257.3</v>
+      </c>
+      <c r="F10" s="17" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="17" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
     </row>
-    <row r="17" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
     </row>
-    <row r="18" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
     </row>
-    <row r="19" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
     </row>
-    <row r="20" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
     </row>
-    <row r="21" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
     </row>
-    <row r="22" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
     </row>
-    <row r="23" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
     </row>
-    <row r="24" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
     </row>
   </sheetData>
@@ -1338,15 +1460,15 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.53515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.3828125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.69140625" style="1"/>
+    <col min="1" max="1" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="15.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
@@ -1359,7 +1481,7 @@
       <c r="H1" s="29"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>60</v>
       </c>
@@ -1385,7 +1507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1535,7 @@
         <v>0.32091212458286983</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +1563,7 @@
         <v>0.28420467185761955</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1469,7 +1591,7 @@
         <v>0.39488320355951056</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1502,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1531,10 +1653,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1544,17 +1666,17 @@
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="13"/>
     </row>
   </sheetData>
@@ -1582,15 +1704,15 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.53515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.3828125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.69140625" style="1"/>
+    <col min="1" max="1" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="15.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
@@ -1602,7 +1724,7 @@
       <c r="G1" s="31"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>89</v>
       </c>
@@ -1628,7 +1750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1656,7 +1778,7 @@
         <v>0.39342265529841658</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1684,7 +1806,7 @@
         <v>0.25030450669914739</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1712,7 +1834,7 @@
         <v>0.35627283800243603</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1745,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1774,10 +1896,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1786,16 +1908,16 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" s="13"/>
     </row>
   </sheetData>
@@ -1823,15 +1945,15 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.53515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.3828125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.69140625" style="1"/>
+    <col min="1" max="1" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="15.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
@@ -1843,7 +1965,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>63</v>
       </c>
@@ -1869,7 +1991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1897,7 +2019,7 @@
         <v>0.39096486335750141</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1925,7 +2047,7 @@
         <v>0.25432236475181258</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1953,7 +2075,7 @@
         <v>0.35471277189068601</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1986,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -2015,10 +2137,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2027,16 +2149,16 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" s="13"/>
     </row>
   </sheetData>
@@ -2064,15 +2186,15 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.53515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.3828125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.69140625" style="1"/>
+    <col min="1" max="1" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="15.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
@@ -2084,7 +2206,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>171</v>
       </c>
@@ -2110,7 +2232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2138,7 +2260,7 @@
         <v>0.39466484268125857</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2166,7 +2288,7 @@
         <v>0.24555403556771546</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2194,7 +2316,7 @@
         <v>0.359781121751026</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2227,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -2256,19 +2378,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
     </row>
   </sheetData>
@@ -2293,18 +2415,18 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.53515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.3828125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.69140625" style="1"/>
+    <col min="1" max="1" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
@@ -2316,7 +2438,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>17</v>
       </c>
@@ -2342,7 +2464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2375,7 +2497,7 @@
         <v>0.37356235997012693</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2408,7 +2530,7 @@
         <v>0.25944734876773712</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2441,7 +2563,7 @@
         <v>0.36699029126213595</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2474,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -2503,37 +2625,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="B9" s="13" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">INDIRECT(A9&amp;"!G6")</f>
+        <v>17980</v>
+      </c>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">INDIRECT(A10&amp;"!G6")</f>
+        <v>16420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">INDIRECT(A11&amp;"!G6")</f>
+        <v>17930</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>171</v>
       </c>
+      <c r="B12" s="13" cm="1">
+        <f t="array" aca="1" ref="B12" ca="1">INDIRECT(A12&amp;"!G6")</f>
+        <v>14620</v>
+      </c>
       <c r="E12" s="13"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>175</v>
       </c>
@@ -2559,37 +2697,37 @@
   </sheetPr>
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.53515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3828125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.3828125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.765625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="15" customWidth="1"/>
     <col min="9" max="9" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.53515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.69140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.84375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.69140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.84375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.69140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.53515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.3828125" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.69140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.69140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.84375" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.15234375" style="15"/>
+    <col min="17" max="17" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>18</v>
       </c>
@@ -2654,7 +2792,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="F2" s="20" t="s">
         <v>93</v>
       </c>
@@ -2707,7 +2851,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="F3" s="20" t="s">
         <v>116</v>
       </c>
@@ -2760,7 +2910,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="G4" s="20" t="s">
         <v>25</v>
       </c>
@@ -2795,7 +2951,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="G5" s="20" t="s">
         <v>22</v>
       </c>
@@ -2821,7 +2983,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G6" s="20" t="s">
         <v>23</v>
       </c>
@@ -2838,7 +3000,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G7" s="20" t="s">
         <v>24</v>
       </c>
@@ -2855,7 +3017,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G8" s="20" t="s">
         <v>27</v>
       </c>
@@ -2866,7 +3028,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H9" s="20" t="s">
         <v>34</v>
       </c>
@@ -2874,7 +3036,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H10" s="20" t="s">
         <v>30</v>
       </c>
@@ -2882,7 +3044,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
@@ -2890,7 +3052,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H12" s="20" t="s">
         <v>156</v>
       </c>
@@ -2898,7 +3060,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H13" s="20" t="s">
         <v>158</v>
       </c>
@@ -2906,7 +3068,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H14" s="20" t="s">
         <v>39</v>
       </c>
@@ -2914,57 +3076,65 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H15" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H16" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H21" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H23" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H24" s="20" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{27B7E391-E291-4605-913D-06B5AC2E3717}">
+      <formula1>$F$1:$V$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{CD902332-2AEB-4468-8F0E-FA0EA9DCCECE}">
+      <formula1>INDIRECT(C1)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2976,47 +3146,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.69140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.15234375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.3828125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>57</v>
       </c>
@@ -3126,7 +3296,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>93</v>
       </c>
@@ -3241,7 +3411,7 @@
       <c r="AN2" s="20"/>
       <c r="AO2" s="20"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>116</v>
       </c>
@@ -3323,7 +3493,7 @@
       <c r="AN3" s="20"/>
       <c r="AO3" s="20"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C4" s="20" t="s">
         <v>25</v>
       </c>
@@ -3359,7 +3529,7 @@
       </c>
       <c r="AL4" s="20"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C5" s="20" t="s">
         <v>22</v>
       </c>
@@ -3389,7 +3559,7 @@
       </c>
       <c r="AL5" s="20"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C6" s="20" t="s">
         <v>145</v>
       </c>
@@ -3407,7 +3577,7 @@
       </c>
       <c r="AL6" s="20"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C7" s="20" t="s">
         <v>24</v>
       </c>
@@ -3424,7 +3594,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C8" s="20" t="s">
         <v>27</v>
       </c>
@@ -3435,7 +3605,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D9" s="20" t="s">
         <v>34</v>
       </c>
@@ -3443,7 +3613,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D10" s="20" t="s">
         <v>30</v>
       </c>
@@ -3451,7 +3621,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D11" s="20" t="s">
         <v>29</v>
       </c>
@@ -3459,7 +3629,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D12" s="20" t="s">
         <v>156</v>
       </c>
@@ -3467,7 +3637,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D13" s="20" t="s">
         <v>158</v>
       </c>
@@ -3475,7 +3645,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D14" s="20" t="s">
         <v>39</v>
       </c>
@@ -3483,57 +3653,57 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D15" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D16" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D21" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D22" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D23" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D24" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.3">
       <c r="U25" s="20"/>
     </row>
   </sheetData>
@@ -3549,28 +3719,28 @@
       <selection sqref="A1:Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.3828125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>57</v>
       </c>
@@ -3623,7 +3793,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>93</v>
       </c>
@@ -3676,7 +3846,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>116</v>
       </c>
@@ -3729,7 +3899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>25</v>
       </c>
@@ -3764,7 +3934,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
         <v>22</v>
       </c>
@@ -3793,7 +3963,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>145</v>
       </c>
@@ -3810,7 +3980,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
         <v>24</v>
       </c>
@@ -3827,7 +3997,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
         <v>27</v>
       </c>
@@ -3838,7 +4008,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -3846,7 +4016,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="20" t="s">
         <v>30</v>
       </c>
@@ -3854,7 +4024,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="20" t="s">
         <v>29</v>
       </c>
@@ -3862,7 +4032,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="20" t="s">
         <v>156</v>
       </c>
@@ -3870,7 +4040,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="20" t="s">
         <v>158</v>
       </c>
@@ -3878,7 +4048,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="20" t="s">
         <v>39</v>
       </c>
@@ -3886,52 +4056,52 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C15" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C16" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="20" t="s">
         <v>24</v>
       </c>
